--- a/biology/Zoologie/Dacnis_à_pattes_noires/Dacnis_à_pattes_noires.xlsx
+++ b/biology/Zoologie/Dacnis_à_pattes_noires/Dacnis_à_pattes_noires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dacnis_%C3%A0_pattes_noires</t>
+          <t>Dacnis_à_pattes_noires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dacnis nigripes
 Le Dacnis à pattes noires (Dacnis nigripes) est une espèce de passereaux de la famille des Thraupidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dacnis_%C3%A0_pattes_noires</t>
+          <t>Dacnis_à_pattes_noires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique au Brésil. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dacnis_%C3%A0_pattes_noires</t>
+          <t>Dacnis_à_pattes_noires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il habite la forêt humide tropicale et subtropicale de plaine et de montagne. Il est réparti du niveau de la mer jusqu'à 1 700 m d'altitude[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite la forêt humide tropicale et subtropicale de plaine et de montagne. Il est réparti du niveau de la mer jusqu'à 1 700 m d'altitude.
 Il est menacé par la perte de son habitat.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dacnis_%C3%A0_pattes_noires</t>
+          <t>Dacnis_à_pattes_noires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit de baies, de graines, d'insectes et du nectar d'eucalyptus[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit de baies, de graines, d'insectes et du nectar d'eucalyptus.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dacnis_%C3%A0_pattes_noires</t>
+          <t>Dacnis_à_pattes_noires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se reproduit entre octobre et février. Il construit son nid dans des arbres qui ont de nombreux épiphytes, particulièrement les Usnea, qui sont un composant majeur de leur nid[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se reproduit entre octobre et février. Il construit son nid dans des arbres qui ont de nombreux épiphytes, particulièrement les Usnea, qui sont un composant majeur de leur nid.
 </t>
         </is>
       </c>
